--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E853A236-B484-485F-B7A0-55D07CF7340C}"/>
+  <xr:revisionPtr revIDLastSave="978" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4B6ACE7-B6BB-46E9-B5F7-5C67C23BCECC}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="6855" windowWidth="27870" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="2445" windowWidth="27870" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6690" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1749">
   <si>
     <t>id</t>
   </si>
@@ -9072,8 +9072,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F414" sqref="F414"/>
+    <sheetView tabSelected="1" topLeftCell="B1281" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1281" sqref="F1281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="I3">
         <f>COUNTIF(F$3:F$1736,1)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1736,3)</f>
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1736,4)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="I6">
         <f>COUNTIF(F$3:F$1736,5)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1736,6)</f>
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1736,7)</f>
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1">
@@ -10773,8 +10773,8 @@
       <c r="E64" t="s">
         <v>1418</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>1435</v>
+      <c r="F64" s="4">
+        <v>2</v>
       </c>
       <c r="G64" t="s">
         <v>1421</v>
@@ -11928,8 +11928,8 @@
       <c r="E107" t="s">
         <v>1418</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>1435</v>
+      <c r="F107" s="4">
+        <v>7</v>
       </c>
       <c r="G107" t="s">
         <v>1421</v>
@@ -13275,8 +13275,8 @@
       <c r="E158" t="s">
         <v>1418</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>1435</v>
+      <c r="F158" s="4">
+        <v>7</v>
       </c>
       <c r="G158" t="s">
         <v>1421</v>
@@ -18495,8 +18495,8 @@
       <c r="E354" t="s">
         <v>1417</v>
       </c>
-      <c r="F354" s="4" t="s">
-        <v>1434</v>
+      <c r="F354" s="4">
+        <v>2</v>
       </c>
       <c r="G354" t="s">
         <v>1421</v>
@@ -20069,7 +20069,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" hidden="1">
       <c r="A414">
         <v>2201069</v>
       </c>
@@ -20874,8 +20874,8 @@
       <c r="E444" t="s">
         <v>1414</v>
       </c>
-      <c r="F444" s="4" t="s">
-        <v>1431</v>
+      <c r="F444" s="4">
+        <v>7</v>
       </c>
       <c r="G444" t="s">
         <v>1422</v>
@@ -21625,7 +21625,7 @@
         <v>1414</v>
       </c>
       <c r="F472" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G472" t="s">
         <v>1422</v>
@@ -22765,7 +22765,7 @@
         <v>1414</v>
       </c>
       <c r="F516" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G516" t="s">
         <v>1422</v>
@@ -22951,7 +22951,7 @@
         <v>1419</v>
       </c>
       <c r="F523" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G523" t="s">
         <v>1423</v>
@@ -25170,8 +25170,8 @@
       <c r="E607" t="s">
         <v>1413</v>
       </c>
-      <c r="F607" s="4" t="s">
-        <v>1430</v>
+      <c r="F607" s="4">
+        <v>7</v>
       </c>
       <c r="G607" t="s">
         <v>1422</v>
@@ -25533,8 +25533,8 @@
       <c r="E621" t="s">
         <v>1418</v>
       </c>
-      <c r="F621" s="4" t="s">
-        <v>1435</v>
+      <c r="F621" s="4">
+        <v>2</v>
       </c>
       <c r="G621" t="s">
         <v>1421</v>
@@ -25560,8 +25560,8 @@
       <c r="E622" t="s">
         <v>1418</v>
       </c>
-      <c r="F622" s="4" t="s">
-        <v>1435</v>
+      <c r="F622" s="4">
+        <v>2</v>
       </c>
       <c r="G622" t="s">
         <v>1423</v>
@@ -26289,8 +26289,8 @@
       <c r="E649" t="s">
         <v>1418</v>
       </c>
-      <c r="F649" s="4" t="s">
-        <v>1435</v>
+      <c r="F649" s="4">
+        <v>2</v>
       </c>
       <c r="G649" t="s">
         <v>1421</v>
@@ -32911,7 +32911,7 @@
         <v>1416</v>
       </c>
       <c r="F917" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G917" t="s">
         <v>1421</v>
@@ -35829,8 +35829,8 @@
       <c r="E1028" t="s">
         <v>1418</v>
       </c>
-      <c r="F1028" s="4" t="s">
-        <v>1435</v>
+      <c r="F1028" s="4">
+        <v>2</v>
       </c>
       <c r="G1028" t="s">
         <v>1421</v>
@@ -40902,8 +40902,8 @@
       <c r="E1220" t="s">
         <v>1413</v>
       </c>
-      <c r="F1220" s="4" t="s">
-        <v>1430</v>
+      <c r="F1220" s="4">
+        <v>5</v>
       </c>
       <c r="G1220" t="s">
         <v>1422</v>
@@ -42386,7 +42386,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="1281" spans="1:8" ht="390" hidden="1">
+    <row r="1281" spans="1:8" ht="390">
       <c r="A1281">
         <v>2202547</v>
       </c>
@@ -42402,8 +42402,8 @@
       <c r="E1281" t="s">
         <v>1414</v>
       </c>
-      <c r="F1281" s="4" t="s">
-        <v>1431</v>
+      <c r="F1281" s="4">
+        <v>7</v>
       </c>
       <c r="G1281" t="s">
         <v>1424</v>
@@ -43458,8 +43458,8 @@
       <c r="E1323" t="s">
         <v>1418</v>
       </c>
-      <c r="F1323" s="4" t="s">
-        <v>1435</v>
+      <c r="F1323" s="4">
+        <v>5</v>
       </c>
       <c r="G1323" t="s">
         <v>1422</v>
@@ -45900,8 +45900,8 @@
       <c r="E1418" t="s">
         <v>1416</v>
       </c>
-      <c r="F1418" s="4" t="s">
-        <v>1433</v>
+      <c r="F1418" s="4">
+        <v>2</v>
       </c>
       <c r="G1418" t="s">
         <v>1422</v>
@@ -49548,8 +49548,8 @@
       <c r="E1561" t="s">
         <v>1418</v>
       </c>
-      <c r="F1561" s="4" t="s">
-        <v>1435</v>
+      <c r="F1561" s="4">
+        <v>2</v>
       </c>
       <c r="G1561" t="s">
         <v>1422</v>
@@ -54147,11 +54147,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1736" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G1736" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
-      <filters>
-        <filter val="思想道德评价的最终目的是让学生对道德规范取得自主的认识，所以计算机辅助研究的方向应该是让学生形成习惯，让学生在思维上懂得什么是好的思想道德并在实践中体现，而不是依赖于计算机辅助测评的思想品德，让同学们觉得这是一项测试，而乌孜同学的观点很好的展现了该如何实现思想道德评价的最终目的，我也学习到了很多"/>
-      </filters>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <filters>
+            <x14:filter val="你的观点是多媒体渠道的增加可以帮助学习更多的知识，慕课等线上课程的创立可以为我们提供更多的学习资源，同时也可以丰富我们的课外时间。慕课课程也大多重点鲜明，主题明确，还可以自主把控时间，这有利于我们在课后进行针对性学习。_x000a_我认为你的观点有一定的道理，但也有一些需要补充或考虑的方面。我根据我从网络上搜索到的信息，为你提供以下评价：_x000a_-**多媒体渠道的增加确实可以帮助学习更多的知识，但也要注意信息的真实性、有效性和适用性。不同的多媒体渠道可能有不同的质量、角度和目的，需要学会辨别、筛选和评价信息，避免被误导或浪费时间¹²。-**慕课等线上课程的创立确实可以为我们提供更多的学习资源**，但也要注意选择适合自己水平、兴趣和目标的课程。不同的慕课平台可能有不同的特色、优势和不足，需要根据自己的需求和期望进行比较和选择³。-**线上学习确实可以丰富我们的课外时间**，但也要注意保持合理的学习计划和方法。线上学习需要更强的自律、自控和自主能力，需要根据自己的进度和效果进行调整和反馈，避免过度依赖或沉迷¹²。-**慕课课程确实大多重点鲜明，主题明确**，但也要注意拓展和深化自己的知识和技能。慕课课程可能无法涵盖所有的内容和细节，需要结合其他的资料和渠道进行补充和扩展，以及与其他的学习者进行交流和分享¹²。_x000a_总之，我认为你的观点是积极正面的，但也需要注意线上学习的挑战和局限。我建议你在享受线上学习带来的便利和乐趣的同时，也要培养自己的数字素养和技能，提高自己在数字环境中获取、理解、应用信息的能力。希望这些评价对你有所帮助。（来自NewBing)"/>
+          </filters>
+        </mc:Choice>
+        <mc:Fallback>
+          <customFilters>
+            <customFilter val=""/>
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1047" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E281BA83-E78C-4265-8CFF-FA1FDFCCF38D}"/>
+  <xr:revisionPtr revIDLastSave="1076" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD28D206-BC2C-4AF4-8944-6E9DBE5484CC}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="8880" windowWidth="27870" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2415" windowWidth="27870" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="1743">
   <si>
     <t>id</t>
   </si>
@@ -9051,7 +9051,7 @@
   <dimension ref="A1:I1730"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B324" sqref="A324:XFD324"/>
+      <selection activeCell="F782" sqref="F782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="I2">
         <f>COUNTIF(F$2:F$1730,0)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.5">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1730,3)</f>
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="I6">
         <f>COUNTIF(F$3:F$1730,5)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1730,6)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1730,7)</f>
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11852,8 +11852,8 @@
       <c r="E105" t="s">
         <v>1411</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>1428</v>
+      <c r="F105" s="4">
+        <v>6</v>
       </c>
       <c r="G105" t="s">
         <v>1416</v>
@@ -12146,8 +12146,8 @@
       <c r="E116" t="s">
         <v>1406</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>1423</v>
+      <c r="F116" s="4">
+        <v>6</v>
       </c>
       <c r="G116" t="s">
         <v>1416</v>
@@ -14427,7 +14427,7 @@
         <v>1411</v>
       </c>
       <c r="F202" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G202" t="s">
         <v>1416</v>
@@ -26826,8 +26826,8 @@
       <c r="E672" t="s">
         <v>1406</v>
       </c>
-      <c r="F672" s="4" t="s">
-        <v>1423</v>
+      <c r="F672" s="4">
+        <v>5</v>
       </c>
       <c r="G672" t="s">
         <v>1417</v>
@@ -29514,8 +29514,8 @@
       <c r="E782" t="s">
         <v>1406</v>
       </c>
-      <c r="F782" s="4" t="s">
-        <v>1423</v>
+      <c r="F782" s="4">
+        <v>6</v>
       </c>
       <c r="G782" t="s">
         <v>1415</v>
@@ -30942,8 +30942,8 @@
       <c r="E840" t="s">
         <v>1406</v>
       </c>
-      <c r="F840" s="4" t="s">
-        <v>1423</v>
+      <c r="F840" s="4">
+        <v>5</v>
       </c>
       <c r="G840" t="s">
         <v>1417</v>
@@ -31891,7 +31891,7 @@
         <v>1413</v>
       </c>
       <c r="F877" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G877" t="s">
         <v>1415</v>
@@ -31989,8 +31989,8 @@
       <c r="E881" t="s">
         <v>1411</v>
       </c>
-      <c r="F881" s="4" t="s">
-        <v>1428</v>
+      <c r="F881" s="4">
+        <v>5</v>
       </c>
       <c r="G881" t="s">
         <v>1414</v>
@@ -32391,8 +32391,8 @@
       <c r="E897" t="s">
         <v>1406</v>
       </c>
-      <c r="F897" s="4" t="s">
-        <v>1423</v>
+      <c r="F897" s="4">
+        <v>5</v>
       </c>
       <c r="G897" t="s">
         <v>1417</v>
@@ -46815,8 +46815,8 @@
       <c r="E1455" t="s">
         <v>1410</v>
       </c>
-      <c r="F1455" s="4" t="s">
-        <v>1427</v>
+      <c r="F1455" s="4">
+        <v>2</v>
       </c>
       <c r="G1455" t="s">
         <v>1414</v>
@@ -47556,8 +47556,8 @@
       <c r="E1484" t="s">
         <v>1406</v>
       </c>
-      <c r="F1484" s="4" t="s">
-        <v>1423</v>
+      <c r="F1484" s="4">
+        <v>6</v>
       </c>
       <c r="G1484" t="s">
         <v>1415</v>
@@ -53796,8 +53796,8 @@
       <c r="E1724" t="s">
         <v>1406</v>
       </c>
-      <c r="F1724" s="4" t="s">
-        <v>1423</v>
+      <c r="F1724" s="4">
+        <v>5</v>
       </c>
       <c r="G1724" t="s">
         <v>1417</v>

--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1076" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD28D206-BC2C-4AF4-8944-6E9DBE5484CC}"/>
+  <xr:revisionPtr revIDLastSave="1096" documentId="13_ncr:1_{B08DFF04-94D9-4305-88ED-9BF743B31EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9430B1AE-2CDB-4309-8D1E-AAD9ADF49E70}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2415" windowWidth="27870" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="3465" windowWidth="27870" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6616" uniqueCount="1743">
   <si>
     <t>id</t>
   </si>
@@ -9051,7 +9051,7 @@
   <dimension ref="A1:I1730"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F782" sqref="F782"/>
+      <selection activeCell="F633" sqref="F633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1730,6)</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1730,7)</f>
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11045,8 +11045,8 @@
       <c r="E75" t="s">
         <v>1407</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>1424</v>
+      <c r="F75" s="4">
+        <v>2</v>
       </c>
       <c r="G75" t="s">
         <v>1416</v>
@@ -11234,8 +11234,8 @@
       <c r="E82" t="s">
         <v>1406</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>1423</v>
+      <c r="F82" s="4">
+        <v>6</v>
       </c>
       <c r="G82" t="s">
         <v>1415</v>
@@ -12200,8 +12200,8 @@
       <c r="E118" t="s">
         <v>1406</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>1423</v>
+      <c r="F118" s="4">
+        <v>6</v>
       </c>
       <c r="G118" t="s">
         <v>1415</v>
@@ -12545,8 +12545,8 @@
       <c r="E131" t="s">
         <v>1406</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>1423</v>
+      <c r="F131" s="4">
+        <v>6</v>
       </c>
       <c r="G131" t="s">
         <v>1416</v>
@@ -21957,8 +21957,8 @@
       <c r="E486" t="s">
         <v>1406</v>
       </c>
-      <c r="F486" s="4" t="s">
-        <v>1423</v>
+      <c r="F486" s="4">
+        <v>6</v>
       </c>
       <c r="G486" t="s">
         <v>1416</v>
@@ -25836,8 +25836,8 @@
       <c r="E633" t="s">
         <v>1406</v>
       </c>
-      <c r="F633" s="4" t="s">
-        <v>1423</v>
+      <c r="F633" s="4">
+        <v>6</v>
       </c>
       <c r="G633" t="s">
         <v>1416</v>
@@ -25918,7 +25918,7 @@
         <v>1406</v>
       </c>
       <c r="F636" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G636" t="s">
         <v>1415</v>

--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98011041-0496-4A36-B5EB-B613CC1B9D4A}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230976A2-9FB0-455E-8C6E-2883DF4A2F6A}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1095" windowWidth="21600" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="3330" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="1733">
   <si>
     <t>id</t>
   </si>
@@ -9052,7 +9052,7 @@
   <dimension ref="A1:I1719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="F364" sqref="F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="I3">
         <f>COUNTIF(F$3:F$1719,1)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1719,3)</f>
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1719,4)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="I7">
         <f>COUNTIF(F$2:F$1719,6)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1719,7)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -10192,7 +10192,7 @@
         <v>1370</v>
       </c>
       <c r="F43" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>1374</v>
@@ -10509,8 +10509,8 @@
       <c r="E55" t="s">
         <v>1364</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>1381</v>
+      <c r="F55" s="4">
+        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>1372</v>
@@ -10779,8 +10779,8 @@
       <c r="E65" t="s">
         <v>1369</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>1386</v>
+      <c r="F65" s="4">
+        <v>6</v>
       </c>
       <c r="G65" t="s">
         <v>1372</v>
@@ -11100,8 +11100,8 @@
       <c r="E77" t="s">
         <v>1364</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>1381</v>
+      <c r="F77" s="4">
+        <v>6</v>
       </c>
       <c r="G77" t="s">
         <v>1373</v>
@@ -11475,8 +11475,8 @@
       <c r="E91" t="s">
         <v>1366</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>1383</v>
+      <c r="F91" s="4">
+        <v>7</v>
       </c>
       <c r="G91" t="s">
         <v>1376</v>
@@ -12145,7 +12145,7 @@
         <v>1368</v>
       </c>
       <c r="F116" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G116" t="s">
         <v>1374</v>
@@ -12600,8 +12600,8 @@
       <c r="E133" t="s">
         <v>1369</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>1386</v>
+      <c r="F133" s="4">
+        <v>6</v>
       </c>
       <c r="G133" t="s">
         <v>1372</v>
@@ -17172,8 +17172,8 @@
       <c r="E304" t="s">
         <v>1369</v>
       </c>
-      <c r="F304" s="4" t="s">
-        <v>1386</v>
+      <c r="F304" s="4">
+        <v>7</v>
       </c>
       <c r="G304" t="s">
         <v>1376</v>
@@ -18729,7 +18729,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>2200974</v>
       </c>
@@ -18745,8 +18745,8 @@
       <c r="E364" t="s">
         <v>1367</v>
       </c>
-      <c r="F364" s="4" t="s">
-        <v>1384</v>
+      <c r="F364" s="4">
+        <v>4</v>
       </c>
       <c r="G364" t="s">
         <v>1373</v>
@@ -24183,7 +24183,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>2201416</v>
       </c>
@@ -24226,8 +24226,8 @@
       <c r="E572" t="s">
         <v>1364</v>
       </c>
-      <c r="F572" s="4" t="s">
-        <v>1381</v>
+      <c r="F572" s="4">
+        <v>6</v>
       </c>
       <c r="G572" t="s">
         <v>1374</v>
@@ -25138,8 +25138,8 @@
       <c r="E607" t="s">
         <v>1370</v>
       </c>
-      <c r="F607" s="4" t="s">
-        <v>1387</v>
+      <c r="F607" s="4">
+        <v>6</v>
       </c>
       <c r="G607" t="s">
         <v>1373</v>
@@ -29890,8 +29890,8 @@
       <c r="E798" t="s">
         <v>1366</v>
       </c>
-      <c r="F798" s="4" t="s">
-        <v>1383</v>
+      <c r="F798" s="4">
+        <v>2</v>
       </c>
       <c r="G798" t="s">
         <v>1372</v>
@@ -31412,7 +31412,7 @@
         <v>1364</v>
       </c>
       <c r="F859" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G859" t="s">
         <v>1372</v>
@@ -36994,8 +36994,8 @@
       <c r="E1073" t="s">
         <v>1369</v>
       </c>
-      <c r="F1073" s="4" t="s">
-        <v>1386</v>
+      <c r="F1073" s="4">
+        <v>2</v>
       </c>
       <c r="G1073" t="s">
         <v>1373</v>
@@ -53680,7 +53680,7 @@
   <autoFilter ref="A1:G1719" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="该论文从三个方面（人性化、综合化、融合体现三维目标）探讨了，机考模式下的信息技术高考试题设计，提到了目前已有试题的一些优缺点（以浙江省普通高校招生统一考试技术考试为例子），并给出了相对应的建议。"/>
+        <filter val="机助考试是否与纸质形式的考试具有同等甚至更高的效度和信度尚没有科学、严谨的数据论证和结论，暂时没有办法确定二者在信度上的等效。_x000a_ "/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230976A2-9FB0-455E-8C6E-2883DF4A2F6A}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2070777E-594F-4B97-AC3E-FA77CC816E82}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="3330" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="1350" windowWidth="21540" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6483" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6482" uniqueCount="1733">
   <si>
     <t>id</t>
   </si>
@@ -9052,7 +9052,7 @@
   <dimension ref="A1:I1719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F364" sqref="F364"/>
+      <selection activeCell="F1147" sqref="F1147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9144,7 +9144,7 @@
       </c>
       <c r="I3">
         <f>COUNTIF(F$3:F$1719,1)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1719,4)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -18729,7 +18729,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>2200974</v>
       </c>
@@ -38973,7 +38973,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1147">
         <v>2202313</v>
       </c>
@@ -38989,8 +38989,8 @@
       <c r="E1147" t="s">
         <v>1366</v>
       </c>
-      <c r="F1147" s="4" t="s">
-        <v>1383</v>
+      <c r="F1147" s="4">
+        <v>1</v>
       </c>
       <c r="G1147" t="s">
         <v>1373</v>
@@ -53680,7 +53680,7 @@
   <autoFilter ref="A1:G1719" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="机助考试是否与纸质形式的考试具有同等甚至更高的效度和信度尚没有科学、严谨的数据论证和结论，暂时没有办法确定二者在信度上的等效。_x000a_ "/>
+        <filter val="不是很理解“例如ai不经意间表达出来的种族歧视、消极情绪等等”这一点"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Aid/分类算法数据-师兄-新.xlsx
+++ b/data/Aid/分类算法数据-师兄-新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef3b8070ea8c7de/Project/BertWithPretrained/data/Aid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B1FEEB1-96A3-43BE-B825-669C02516F2A}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="13_ncr:1_{B14CB63F-6E3F-4B24-87F8-56582EAE77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{070C44B2-8C31-4560-BC30-BA9E1773EA5E}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="315" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2100" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6438" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6435" uniqueCount="1732">
   <si>
     <t>id</t>
   </si>
@@ -9056,7 +9056,7 @@
   <dimension ref="A1:I1718"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+      <selection activeCell="F538" sqref="F538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="I2">
         <f>COUNTIF(F$2:F$1718,0)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="324" hidden="1" x14ac:dyDescent="0.15">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="I4">
         <f>COUNTIF(F$2:F$1718,3)</f>
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="I5">
         <f>COUNTIF(F$2:F$1718,4)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="I8">
         <f>COUNTIF(F$2:F$1718,7)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
@@ -13770,7 +13770,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>2200461</v>
       </c>
@@ -16072,8 +16072,8 @@
       <c r="E263" t="s">
         <v>1361</v>
       </c>
-      <c r="F263" s="4" t="s">
-        <v>1378</v>
+      <c r="F263" s="4">
+        <v>7</v>
       </c>
       <c r="G263" t="s">
         <v>1365</v>
@@ -16326,7 +16326,7 @@
         <v>浅度</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>2200759</v>
       </c>
@@ -17526,8 +17526,8 @@
       <c r="E318" t="s">
         <v>1363</v>
       </c>
-      <c r="F318" s="4" t="s">
-        <v>1380</v>
+      <c r="F318" s="4">
+        <v>4</v>
       </c>
       <c r="G318" t="s">
         <v>1370</v>
@@ -23323,7 +23323,7 @@
         <v>中度</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>2201360</v>
       </c>
@@ -23339,8 +23339,8 @@
       <c r="E538" t="s">
         <v>1356</v>
       </c>
-      <c r="F538" s="4" t="s">
-        <v>1373</v>
+      <c r="F538" s="4">
+        <v>4</v>
       </c>
       <c r="G538" t="s">
         <v>1365</v>
@@ -53654,12 +53654,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1718" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:G1718" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
-      <filters>
-        <filter val="文献搜集得全面而且思路清晰，有力地从必要性和可行性两个角度论证了信息技术进高考，但是有些论文稍微有点过于久远，可能不太能跟得上当今高考政策和教育现状。"/>
-        <filter val="文献搜集得全面而且思路清晰，中小学信息技术教育是培养学生的信息素养的重要途径。信息技术纳入高考是范畴,对学校教育而言,发挥着指挥棒的功能,引领和规范着学科教学布局。对于信息技术的发展具有很大的帮助，为中学生综合素质评价的发展具有一定的价值意义。"/>
-      </filters>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <filters>
+            <x14:filter val="2.驳斥对方的点：机考测试因对测评环境要求较高,实施机考测试的难度较大。机考测试首要的问题是如何保证测评的公平性,也即如何让被测评的学生经历相同难度的测试;第二个问题能发挥机考优势的标准化测试题目,对于测评学生的学科核心素养的效果有限,开发可测评学生核心素养且适合机考的题目和题型,需要更为深入的研究;另一个问题是如何保证机考的顺畅执行,包括计算机硬件、网速、机考系统环境、软件版本等在内的诸多要素,都可能影响着机考的顺利实施。对方可能驳斥我们的点：在书面测试中,题型对测评的内容与效果有较大影响,诸如选择题、填空题之类的客观型试题,通常较适合于测评记忆性的基础知识,而对于综合度较高的核心素养的测评,其测评效果有较大局限。因而,从测评学科核心素养的需要来讲,信息技术的书面测试要适度控制客观型试题,而适度增加开放性与综合性较强的试题,以便有效测评学生的理解深度和综合能力,以拓展书面测试在评价内容等方面的广度和深度。"/>
+          </filters>
+        </mc:Choice>
+        <mc:Fallback>
+          <customFilters>
+            <customFilter val=""/>
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </mc:Fallback>
+      </mc:AlternateContent>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
